--- a/biology/Médecine/Ludwig_August_Frankl_von_Hochwart/Ludwig_August_Frankl_von_Hochwart.xlsx
+++ b/biology/Médecine/Ludwig_August_Frankl_von_Hochwart/Ludwig_August_Frankl_von_Hochwart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludwig August Ritter von Frankl-Hochwart (né le 3 février 1810 à Chrast en Tchéquie, mort le 12 mars 1894 à Vienne) est un médecin, journaliste et poète autrichien.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ludwig August Frankl est issu d'une famille juive de Chrast. Son nom hébraïque est Abraham Eleazar. Ses parents sont l'éditeur Leopold Frankl (mort en 1825) et sa femme Thérèse, née Heimann de Lissitz[1]. Ses frères sont David Bernhard Frankl (1820-1859), homme d'affaires et fondateur de l'académie commerciale de Prague, et le conseiller impérial et conseiller municipal Wilhelm Frankl (1821-1893), à qui la création des écoles industrielles de Vienne et du cimetière central de Vienne est attribué[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ludwig August Frankl est issu d'une famille juive de Chrast. Son nom hébraïque est Abraham Eleazar. Ses parents sont l'éditeur Leopold Frankl (mort en 1825) et sa femme Thérèse, née Heimann de Lissitz. Ses frères sont David Bernhard Frankl (1820-1859), homme d'affaires et fondateur de l'académie commerciale de Prague, et le conseiller impérial et conseiller municipal Wilhelm Frankl (1821-1893), à qui la création des écoles industrielles de Vienne et du cimetière central de Vienne est attribué.
 Il acquiert son éducation juive de son oncle,(he) Zechariah Frenkel, père spirituel du judaïsme conservateur.
 Après avoir fréquenté le gymnasium piariste de Prague, il fait en 1828 des études de médecine à l'université de Vienne. Grâce à des ballades, il entre dans les cercles d'écrivains viennois et se fait un nom.
 Son premier recueil de poèmes, Chant de la maison de Habsbourg, est publié en 1832 et se caractérise par son patriotisme ; avec ce poème, il remporte le prix de l'empereur d' Autriche François-Joseph . Son deuxième recueil de poèmes, Legends from the Ancient Land, est publié en 1834 et consacré au traitement des « questions juives ». Le poème Chistoforo Colombo, écrit en 1836 et traitant de Christophe Colomb, lui vaut cette année-là la citoyenneté honoraire de la ville de Colomb à Gênes, 
-Au retour de son voyage en Italie, où il a obtenu son doctorat de médecine à l'université de Padoue[3] en 1837, il commence à exercer et devient le secrétaire de l'Israelitische Kultusgemeinde Wien.
+Au retour de son voyage en Italie, où il a obtenu son doctorat de médecine à l'université de Padoue en 1837, il commence à exercer et devient le secrétaire de l'Israelitische Kultusgemeinde Wien.
 En 1838 , Frenkel est nommé secrétaire de la communauté juive de Vienne. En tant que tel, il s'oppose à l'utilisation de l'orgue dans les synagogues car il y voyait une imitation du christianisme. En sa qualité, il est également responsable des archives historiques de la communauté juive de Vienne et publie des études sur l'histoire de la communauté juive de cette ville. À partir de 1842, Frenkel édite l'hebdomadaire littéraire Sunday Pages jusqu'à ce qu'il soit confisqué par le gouvernement pour avoir soutenu le printemps des peuples.
 En 1841, il prend la rédaction du journal Österreichischen Morgenblattes puis fonde l'hebdomadaire Sonntagsblätter, où il rend compte de la vie intellectuelle viennoise. Par ailleurs, il compose des poèmes, dont Rachel inspiré de la Bible.
 Son poème Die Universität, composé au début de la révolution autrichienne de 1848, est diffusé avec un grand tirage sans censure à un plus d'un million d'exemplaires et est mis en musique par plusieurs compositeurs.
